--- a/results_ea.xlsx
+++ b/results_ea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Desktop\ecooooo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B882859-EDD5-406C-93AA-7646D6CB58F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B241D770-57AF-4176-953A-29FD4A89B0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00CD5CB2-6A33-430D-AD8A-0FE751F1B641}"/>
+    <workbookView xWindow="11796" yWindow="2028" windowWidth="17280" windowHeight="8964" xr2:uid="{00CD5CB2-6A33-430D-AD8A-0FE751F1B641}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790EAA5-6169-441C-97AF-A80F54A4D4C2}">
-  <dimension ref="B4:L17"/>
+  <dimension ref="B4:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,157 +515,139 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1</v>
-      </c>
       <c r="C7">
-        <v>216.27199999999999</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>10000</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
+        <v>213.77199999999999</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>215.93600000000001</v>
+        <v>216.27199999999999</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>215.93600000000001</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>215.626</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>10000</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C13">
-        <v>215.37</v>
+        <v>215.626</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>10000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C14">
-        <v>218.626</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>0.1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>10000</v>
+        <v>215.37</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15">
-        <v>217.31399999999999</v>
+        <v>218.626</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16">
-        <v>217.36</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.5</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>10000</v>
+        <v>217.31399999999999</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17">
-        <v>216.56800000000001</v>
+        <v>217.36</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0.5</v>
@@ -674,6 +656,29 @@
         <v>1</v>
       </c>
       <c r="I17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>216.56800000000001</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>10000</v>
       </c>
     </row>
